--- a/biology/Zoologie/Bhutanitis_nigrilima/Bhutanitis_nigrilima.xlsx
+++ b/biology/Zoologie/Bhutanitis_nigrilima/Bhutanitis_nigrilima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bhutanitis nigrilima est une espèce de papillons de la famille des Papilionidae, de la sous-famille des Parnassiinae et du genre Bhutanitis.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bhutanitis nigrilima a été décrit par Io Chou (d)[2],[3] en 1992[1].
-Toutefois, selon Zhizhong Zhang, Zhicheng Jiang et Zhengyang Wang en 2019, cette espèce serait un synonyme de Bhutanitis thaidina[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhutanitis nigrilima a été décrit par Io Chou (d), en 1992.
+Toutefois, selon Zhizhong Zhang, Zhicheng Jiang et Zhengyang Wang en 2019, cette espèce serait un synonyme de Bhutanitis thaidina.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa biologie est encore très peu connue.
-Plantes hôtes
-Ses plantes hôtes sont des aristoloches (Aristolochia).
 </t>
         </is>
       </c>
@@ -573,12 +587,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme tous les Bhutanitis, ce papillon est sur la liste de la convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES).
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des aristoloches (Aristolochia).
 </t>
         </is>
       </c>
@@ -604,10 +624,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les Bhutanitis, ce papillon est sur la liste de la convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bhutanitis_nigrilima</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bhutanitis_nigrilima</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(zh) Io Chou (d), « A study on the rare butterflies of the genus bhut anitis (Lepidoptera: papilionidae) with descriptions of two new species », Entomotaxonomia, vol. 14, no 1,‎ 1er janvier 1992, p. 51-54 (ISSN 1000-7482, lire en ligne, consulté le 2 février 2021).</t>
         </is>
